--- a/excel/2.xlsx
+++ b/excel/2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -16,6 +16,115 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63,10 +172,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -347,63 +464,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="25.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="50.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:I6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
